--- a/data/trans_bre/P12_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,71; 14,55</t>
+          <t>6,89; 14,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,91; 12,19</t>
+          <t>4,23; 12,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,95; 14,24</t>
+          <t>4,75; 13,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,61; 11,16</t>
+          <t>2,37; 10,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,96; 51,4</t>
+          <t>20,96; 50,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,37; 47,78</t>
+          <t>13,68; 47,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,91; 55,05</t>
+          <t>15,53; 52,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,03; 43,41</t>
+          <t>7,26; 41,42</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,61; 10,13</t>
+          <t>4,77; 10,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,28; 9,23</t>
+          <t>4,21; 9,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 6,96</t>
+          <t>2,28; 6,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 7,07</t>
+          <t>1,35; 7,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,6; 80,95</t>
+          <t>30,13; 79,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,04; 76,08</t>
+          <t>29,51; 76,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,01; 63,13</t>
+          <t>17,25; 61,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,75; 55,09</t>
+          <t>9,66; 59,05</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,75; 14,59</t>
+          <t>4,65; 14,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 8,47</t>
+          <t>-1,67; 8,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 6,88</t>
+          <t>-1,18; 7,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 6,52</t>
+          <t>-1,58; 6,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,69; 113,32</t>
+          <t>26,14; 108,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 76,43</t>
+          <t>-10,82; 72,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 71,93</t>
+          <t>-8,61; 73,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 47,1</t>
+          <t>-8,92; 44,13</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,19; 12,19</t>
+          <t>8,08; 12,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,0; 10,02</t>
+          <t>6,2; 10,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,71; 8,72</t>
+          <t>4,81; 8,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 7,7</t>
+          <t>3,07; 7,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,29; 65,64</t>
+          <t>39,67; 66,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,91; 60,49</t>
+          <t>34,02; 62,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,54; 60,17</t>
+          <t>29,25; 59,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,15; 48,02</t>
+          <t>17,19; 49,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,89; 14,46</t>
+          <t>6,93; 14,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,23; 12,27</t>
+          <t>3,7; 11,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,75; 13,83</t>
+          <t>5,18; 14,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,96; 50,91</t>
+          <t>20,74; 51,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,68; 47,95</t>
+          <t>12,35; 48,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,53; 52,81</t>
+          <t>16,56; 52,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,77; 10,2</t>
+          <t>4,87; 10,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,21; 9,07</t>
+          <t>4,27; 9,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 6,87</t>
+          <t>2,42; 7,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,13; 79,08</t>
+          <t>32,78; 77,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,51; 76,0</t>
+          <t>29,17; 76,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,25; 61,93</t>
+          <t>17,74; 62,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,65; 14,61</t>
+          <t>4,22; 14,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 8,1</t>
+          <t>-1,66; 8,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 7,28</t>
+          <t>-0,99; 7,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,14; 108,13</t>
+          <t>21,81; 103,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 72,04</t>
+          <t>-10,88; 72,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 73,07</t>
+          <t>-8,53; 74,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,08; 12,33</t>
+          <t>8,19; 12,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,2; 10,19</t>
+          <t>6,05; 10,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 8,62</t>
+          <t>4,56; 8,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>39,67; 66,41</t>
+          <t>40,44; 67,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,02; 62,51</t>
+          <t>32,78; 63,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,25; 59,07</t>
+          <t>27,47; 57,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/P12_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tuvo mucha energía alguna vez o algunas veces</t>
+          <t>Población que refirió mucha energía alguna vez o algunas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,93; 14,5</t>
+          <t>6,71; 14,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,7; 11,94</t>
+          <t>3,91; 12,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,18; 14,02</t>
+          <t>4,95; 14,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 10,77</t>
+          <t>2,61; 11,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,74; 51,06</t>
+          <t>20,96; 51,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,35; 48,91</t>
+          <t>13,37; 47,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,56; 52,46</t>
+          <t>15,91; 55,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,26; 41,42</t>
+          <t>8,03; 43,41</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,87; 10,01</t>
+          <t>4,61; 10,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,27; 9,21</t>
+          <t>4,28; 9,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,0</t>
+          <t>2,47; 6,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 7,36</t>
+          <t>1,44; 7,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,78; 77,74</t>
+          <t>30,6; 80,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,17; 76,3</t>
+          <t>29,04; 76,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,74; 62,69</t>
+          <t>19,01; 63,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,66; 59,05</t>
+          <t>9,75; 55,09</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,22; 14,21</t>
+          <t>3,75; 14,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 8,16</t>
+          <t>-1,74; 8,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 7,27</t>
+          <t>-1,06; 6,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 6,46</t>
+          <t>-1,34; 6,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,81; 103,86</t>
+          <t>21,69; 113,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 72,64</t>
+          <t>-10,47; 76,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 74,99</t>
+          <t>-8,66; 71,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 44,13</t>
+          <t>-6,56; 47,1</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,19; 12,34</t>
+          <t>8,19; 12,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,05; 10,26</t>
+          <t>6,0; 10,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,56; 8,55</t>
+          <t>4,71; 8,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 7,77</t>
+          <t>3,2; 7,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,44; 67,11</t>
+          <t>40,29; 65,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,78; 63,03</t>
+          <t>32,91; 60,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,47; 57,99</t>
+          <t>28,54; 60,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,19; 49,15</t>
+          <t>18,15; 48,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>6,81</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>23,71%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,61; 11,16</t>
+          <t>2,78; 11,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,03; 43,41</t>
+          <t>8,47; 43,48</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>35,28%</t>
+          <t>38,62%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 7,07</t>
+          <t>0,07; 8,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,75; 55,09</t>
+          <t>2,84; 83,5</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>15,52%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 6,52</t>
+          <t>-1,42; 6,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 47,1</t>
+          <t>-7,53; 45,99</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>5,77</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,25%</t>
+          <t>36,61%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 7,7</t>
+          <t>2,07; 9,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,15; 48,02</t>
+          <t>13,14; 67,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,71; 14,55</t>
+          <t>6,55; 14,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,91; 12,19</t>
+          <t>3,58; 12,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,95; 14,24</t>
+          <t>4,79; 14,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 11,23</t>
+          <t>2,15; 11,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,96; 51,4</t>
+          <t>19,89; 51,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,37; 47,78</t>
+          <t>11,45; 48,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,91; 55,05</t>
+          <t>16,29; 54,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,47; 43,48</t>
+          <t>6,83; 43,94</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,61; 10,13</t>
+          <t>4,65; 10,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,28; 9,23</t>
+          <t>4,19; 9,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 6,96</t>
+          <t>2,11; 6,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 8,45</t>
+          <t>0,14; 9,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,6; 80,95</t>
+          <t>30,37; 78,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,04; 76,08</t>
+          <t>30,01; 76,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,01; 63,13</t>
+          <t>15,89; 59,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 83,5</t>
+          <t>3,58; 91,45</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,75; 14,59</t>
+          <t>4,13; 14,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 8,47</t>
+          <t>-1,48; 8,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 6,88</t>
+          <t>-1,46; 7,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 6,48</t>
+          <t>-1,6; 6,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,69; 113,32</t>
+          <t>23,36; 109,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 76,43</t>
+          <t>-9,58; 82,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 71,93</t>
+          <t>-10,87; 72,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 45,99</t>
+          <t>-8,82; 45,06</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,19; 12,19</t>
+          <t>7,88; 12,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,0; 10,02</t>
+          <t>6,07; 10,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,71; 8,72</t>
+          <t>4,84; 8,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 9,0</t>
+          <t>2,2; 9,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,29; 65,64</t>
+          <t>37,8; 65,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,91; 60,49</t>
+          <t>33,17; 62,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,54; 60,17</t>
+          <t>29,38; 59,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,14; 67,13</t>
+          <t>14,37; 69,16</t>
         </is>
       </c>
     </row>
